--- a/项目规划.xlsx
+++ b/项目规划.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Online Judge" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Technical point" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>2013.10.27</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,30 @@
   </si>
   <si>
     <t>2013.10.27日第一次项目计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1Hibernate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2JNI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013.10.30日第二次项目计划（修正第一次计划）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013.10.30日里程碑取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013.11.3日里程碑延时到11.6日 要求暂时不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之后里程碑暂时不考虑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B8"/>
+  <dimension ref="A2:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -461,6 +485,26 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -470,12 +514,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
